--- a/data/trans_camb/P12_1_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P12_1_R-Edad-trans_camb.xlsx
@@ -664,7 +664,7 @@
         <v>-4.805836720775976</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>-4.529037355792616</v>
+        <v>-4.529037355792617</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-5.352522083471849</v>
+        <v>-4.608975639163578</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-7.266157815782437</v>
+        <v>-7.158822198057442</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-9.402087126880797</v>
+        <v>-9.655841978546592</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-3.375532990545441</v>
+        <v>-3.874300976983426</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-10.52738007398877</v>
+        <v>-10.40805272452871</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-9.492699587116588</v>
+        <v>-8.825732587218841</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-2.687020586006982</v>
+        <v>-3.174309060690522</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-7.630371464311341</v>
+        <v>-7.636003353379244</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-8.113964228987422</v>
+        <v>-8.201694284176082</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.120922004494424</v>
+        <v>3.245609002710173</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.8171272067658523</v>
+        <v>0.3205366989778829</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-0.2639783339674263</v>
+        <v>-0.7463464172435385</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6.352704871160604</v>
+        <v>6.299088538275985</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>-1.844450674479597</v>
+        <v>-1.672180727810196</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>3.33961053116023</v>
+        <v>2.907192133403608</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>3.52545988609629</v>
+        <v>3.238659641910564</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>-1.950425474767117</v>
+        <v>-1.918230486833139</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-0.8078760779339408</v>
+        <v>-0.5052594110358124</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>-0.3552070213360048</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>-0.3347483408489238</v>
+        <v>-0.3347483408489239</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.4135713976450988</v>
+        <v>-0.3664251442500728</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.5700173892739504</v>
+        <v>-0.5543484677148407</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.7889514582491006</v>
+        <v>-0.7909208783430083</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.1884111378185961</v>
+        <v>-0.2005911419140591</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.5706501674782603</v>
+        <v>-0.556112476853857</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.5107015145240006</v>
+        <v>-0.4843589125380438</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.1815203806620603</v>
+        <v>-0.2092305187775855</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.5107596047459172</v>
+        <v>-0.5106409818614737</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.546980426436948</v>
+        <v>-0.5555748095352772</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.3637906913854312</v>
+        <v>0.397524476827387</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.1165771663293524</v>
+        <v>0.04238014103073329</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.001788826538597116</v>
+        <v>-0.05157988783454411</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.4562207891865614</v>
+        <v>0.44596043753158</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.124620992167833</v>
+        <v>-0.1063686731287926</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2236703823644235</v>
+        <v>0.2040347692746393</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2891494939925995</v>
+        <v>0.2663895583429247</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.1622917345650435</v>
+        <v>-0.1543200174127287</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.04288962105025725</v>
+        <v>-0.03209105053112594</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-4.203644351794524</v>
+        <v>-4.200474101844331</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-8.45283549605066</v>
+        <v>-8.599609551452366</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-8.624683891185029</v>
+        <v>-8.819110651655901</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-3.977064252231818</v>
+        <v>-3.744890259236892</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-11.53357520065834</v>
+        <v>-11.15031196387176</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-11.56037557417036</v>
+        <v>-11.37301097319116</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-2.686170875523407</v>
+        <v>-3.03202051610441</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-8.964144677831252</v>
+        <v>-8.884210372201924</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-8.699929329530077</v>
+        <v>-8.816834427424428</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.123995554154394</v>
+        <v>3.041723460388803</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-1.648043888290141</v>
+        <v>-1.669581023471743</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3402751389623443</v>
+        <v>-0.1210599022127962</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5.413675026016469</v>
+        <v>5.642810848682332</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-3.013597448507009</v>
+        <v>-3.12964818807653</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-3.040341543334903</v>
+        <v>-2.750594718378194</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>3.012337459014845</v>
+        <v>3.114707664614142</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-3.218367289556971</v>
+        <v>-3.255410346310495</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-2.59590293202722</v>
+        <v>-2.684384220524079</v>
       </c>
     </row>
     <row r="13">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.2624915781315045</v>
+        <v>-0.2621452769029821</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.5381169557328354</v>
+        <v>-0.5300764593400707</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.5545902376060525</v>
+        <v>-0.5672205858395373</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.1856330145846303</v>
+        <v>-0.1730928262149377</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.5298650260004376</v>
+        <v>-0.5241730181105123</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.54647257945093</v>
+        <v>-0.5385795645176773</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.1471181565383502</v>
+        <v>-0.1625625141570017</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.4986583033028179</v>
+        <v>-0.4918610068581895</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.4910041760047255</v>
+        <v>-0.489535386482349</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.2548701585734151</v>
+        <v>0.2449106614342657</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.1236608601507288</v>
+        <v>-0.1206486769566667</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.02946202756001217</v>
+        <v>-0.002355478659741189</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.3205378983042115</v>
+        <v>0.3260844386091387</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.1825381043054243</v>
+        <v>-0.1745826594239466</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.1753808175177707</v>
+        <v>-0.1541038436945937</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2011501122431058</v>
+        <v>0.2005608751026881</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.2104709558583133</v>
+        <v>-0.2158057261089107</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.1696816342921157</v>
+        <v>-0.1645238520134723</v>
       </c>
     </row>
     <row r="16">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-5.87694555579731</v>
+        <v>-5.553230183597583</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-12.71592096459362</v>
+        <v>-12.47204896897703</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-12.47854659210133</v>
+        <v>-11.73354943055457</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.635589333877477</v>
+        <v>-1.73639709462544</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-13.63653245426034</v>
+        <v>-13.71635858917916</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-9.356722654463406</v>
+        <v>-9.484898851871087</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-2.532577498046511</v>
+        <v>-2.456733298954676</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-12.20695185736378</v>
+        <v>-12.28683002827504</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-9.40450900566363</v>
+        <v>-9.505082842502109</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.947732790782961</v>
+        <v>2.648327605189832</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-4.458822821940023</v>
+        <v>-5.223855319432233</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-3.950186083324198</v>
+        <v>-3.912230099573435</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>7.273580529470087</v>
+        <v>7.967522400361866</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>-5.54403647066535</v>
+        <v>-5.608088619758157</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-1.433876657950854</v>
+        <v>-1.189224007976384</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>3.712662489201488</v>
+        <v>3.822162250203501</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>-6.540364784598774</v>
+        <v>-6.65590433795777</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-3.748680090994196</v>
+        <v>-3.91593390647814</v>
       </c>
     </row>
     <row r="19">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.2805398347061963</v>
+        <v>-0.2799797417574998</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.6191883038601644</v>
+        <v>-0.6209967446795475</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.5893083371935911</v>
+        <v>-0.5743443481390638</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.07504212365043644</v>
+        <v>-0.06771566396496173</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.560141595919323</v>
+        <v>-0.5711089148233998</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.3869248284022618</v>
+        <v>-0.3937471636614633</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.1141088288918779</v>
+        <v>-0.1090306973220956</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.5559612569777812</v>
+        <v>-0.5615890488628599</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.4342143626738781</v>
+        <v>-0.4408878290606192</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.1911998644723127</v>
+        <v>0.167567018699754</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.2783497578012452</v>
+        <v>-0.3251937190622549</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.2356152317753918</v>
+        <v>-0.2373593638993197</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.3719171246991493</v>
+        <v>0.4093018393569104</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.2740040556938001</v>
+        <v>-0.2861450883360741</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.07222403080650164</v>
+        <v>-0.06544319756194543</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2009771537047108</v>
+        <v>0.2102773498004442</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.348148234870414</v>
+        <v>-0.3584191745645278</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.2054957059558096</v>
+        <v>-0.2084480889392203</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>-3.652916322230815</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-3.336200682203444</v>
+        <v>-3.336200682203441</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>5.884810463764357</v>
@@ -1297,7 +1297,7 @@
         <v>-7.15782413774119</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>-3.153454045599588</v>
+        <v>-3.15345404559958</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>1.628978947943324</v>
@@ -1306,7 +1306,7 @@
         <v>-5.395448380896564</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-3.17512222385192</v>
+        <v>-3.175122223851914</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-7.298972516674035</v>
+        <v>-7.970340527504836</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-8.072766037393931</v>
+        <v>-8.372699817522951</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-7.434475879316802</v>
+        <v>-7.512028998273887</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.7818034183155995</v>
+        <v>1.007488952353291</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-11.74890223232884</v>
+        <v>-11.81544296464676</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-7.544782692452928</v>
+        <v>-7.23936148837222</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-2.028222915360317</v>
+        <v>-1.666602948294708</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-8.70617917167951</v>
+        <v>-8.797689484045112</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-6.262282765417488</v>
+        <v>-6.60427319622134</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.127196111164308</v>
+        <v>1.776664011982237</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.7674763036489046</v>
+        <v>0.757688501555666</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.381063850569505</v>
+        <v>1.426765117480094</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>11.15348362013071</v>
+        <v>11.54265570045258</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-2.614654027013727</v>
+        <v>-2.517846078323639</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.9260417564566001</v>
+        <v>1.24557686196969</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>4.957578288300525</v>
+        <v>5.28005660414949</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-1.94259302521675</v>
+        <v>-2.159926514743951</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-0.1672653539888326</v>
+        <v>-0.3166534142315718</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>-0.2017339985287976</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.1842432303799368</v>
+        <v>-0.1842432303799366</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.2579031704026071</v>
@@ -1402,7 +1402,7 @@
         <v>-0.3136932870947396</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.1382008479435078</v>
+        <v>-0.1382008479435074</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.07963809512243625</v>
@@ -1411,7 +1411,7 @@
         <v>-0.2637745760487169</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.1552264908074663</v>
+        <v>-0.155226490807466</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.3590688288775125</v>
+        <v>-0.3791011609083544</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.3847627036660809</v>
+        <v>-0.4017357296502939</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.3620170517948306</v>
+        <v>-0.3650422317548833</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.02894185294967459</v>
+        <v>0.02333134341782082</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.4650577321954383</v>
+        <v>-0.4631232427201279</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.2915496519384715</v>
+        <v>-0.2833043721422002</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.09041128784138108</v>
+        <v>-0.07600375391388642</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.3897093087251826</v>
+        <v>-0.3943815379156922</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.2768052316820716</v>
+        <v>-0.2920025654515388</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.1284375429312587</v>
+        <v>0.1120905880788995</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.052798953069287</v>
+        <v>0.04692957850567142</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.09729379885088434</v>
+        <v>0.1083509686186212</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.5564407509333847</v>
+        <v>0.5459391676842333</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.1290721282690072</v>
+        <v>-0.125220547024755</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.04602012060880457</v>
+        <v>0.0632833315636757</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.266997519387934</v>
+        <v>0.2920056505029164</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.09839737211300378</v>
+        <v>-0.1165005008240815</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.007833641898866154</v>
+        <v>-0.01647438396702039</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>-8.556441358188295</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>-3.207511104153848</v>
+        <v>-3.207511104153846</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>1.730628413881735</v>
@@ -1520,7 +1520,7 @@
         <v>-6.982286504499391</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>-3.461275797031294</v>
+        <v>-3.461275797031291</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-6.621321780876965</v>
+        <v>-6.425678699297245</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-13.56670988782946</v>
+        <v>-14.2521232381377</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-8.316496480520822</v>
+        <v>-8.43438493769041</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-4.331458365028969</v>
+        <v>-5.127691759987695</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-11.37496071295971</v>
+        <v>-11.74211096173029</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-9.314545081160427</v>
+        <v>-9.243421220487985</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-3.986294088071537</v>
+        <v>-3.573549315976651</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-11.06583501272147</v>
+        <v>-10.93729657075575</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-7.16041885058227</v>
+        <v>-7.366459057675439</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>4.695213999081494</v>
+        <v>4.904160954352759</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-2.623743889873782</v>
+        <v>-3.726079625327997</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1.514823671349057</v>
+        <v>1.656196600151761</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>8.311984849667125</v>
+        <v>7.945610642413794</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>-0.04509286306635692</v>
+        <v>0.709394802288748</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>1.453186189444353</v>
+        <v>1.49727683504585</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>4.625298448143518</v>
+        <v>4.52800418083721</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-2.939508674617374</v>
+        <v>-3.040691733385385</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.023054418305428</v>
+        <v>0.001700870236898374</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>-0.4063468980398294</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.1523252638614698</v>
+        <v>-0.1523252638614696</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.06460662568065723</v>
@@ -1625,7 +1625,7 @@
         <v>-0.2911144809111614</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>-0.1443119680485491</v>
+        <v>-0.144311968048549</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.2735698871599109</v>
+        <v>-0.2659002631505488</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.5714779993795618</v>
+        <v>-0.5823171097149207</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.3458311701950809</v>
+        <v>-0.345623159494842</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.1491511949283599</v>
+        <v>-0.1743284659555835</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.3742713250204207</v>
+        <v>-0.3888479165029859</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.295962993166967</v>
+        <v>-0.2970194152123525</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.1550292017620279</v>
+        <v>-0.1399191681764635</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.4159167893653835</v>
+        <v>-0.4153238771789799</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.2676161921412525</v>
+        <v>-0.2747883791258751</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.2654358078041767</v>
+        <v>0.2794107779971171</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.1539182622838772</v>
+        <v>-0.1950857791090284</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.08814609330614358</v>
+        <v>0.1044471017806984</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.3476260471813384</v>
+        <v>0.3399728310067162</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.002118126883957056</v>
+        <v>0.03546012101420731</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.06497997584853321</v>
+        <v>0.07337113760984865</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.2139804195639045</v>
+        <v>0.2041013952717337</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>-0.1305101088383665</v>
+        <v>-0.1340598229007121</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.001606013067287873</v>
+        <v>-0.0008453971149021073</v>
       </c>
     </row>
     <row r="34">
@@ -1734,7 +1734,7 @@
         <v>-5.284356805893317</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>-5.066513103695469</v>
+        <v>-5.066513103695463</v>
       </c>
     </row>
     <row r="35">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-8.315788945614658</v>
+        <v>-8.443908907556622</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-10.39041051410105</v>
+        <v>-9.741976253101479</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-7.893527708863697</v>
+        <v>-7.757147941042368</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-5.872952738726708</v>
+        <v>-5.416536530501499</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-12.45075688306356</v>
+        <v>-12.52241746591826</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-11.70681432927509</v>
+        <v>-12.95646852389969</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-5.384218368561433</v>
+        <v>-5.399209670520299</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-9.184426584255593</v>
+        <v>-9.584655542545782</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-9.272754881662374</v>
+        <v>-9.29145110119225</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>4.080946792915924</v>
+        <v>3.947098167427945</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>1.489735906446376</v>
+        <v>2.008970212987313</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>2.769210358941686</v>
+        <v>2.005005834710665</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>7.433683080965013</v>
+        <v>7.274296619576834</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>-0.1819135282256467</v>
+        <v>0.2009333604564471</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>-1.493718719915984</v>
+        <v>-1.579901920669657</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>3.693968286345376</v>
+        <v>4.070384389872356</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>-0.8432130434692618</v>
+        <v>-0.7645862612787092</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>-1.376064039578247</v>
+        <v>-1.648339600256207</v>
       </c>
     </row>
     <row r="37">
@@ -1839,7 +1839,7 @@
         <v>-0.227742561757167</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>-0.2183540430360477</v>
+        <v>-0.2183540430360475</v>
       </c>
     </row>
     <row r="38">
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.3962780195544541</v>
+        <v>-0.3989499170332521</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.4853977934164932</v>
+        <v>-0.4549469907993937</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.3701327143839637</v>
+        <v>-0.3673249303630731</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.1872622726361686</v>
+        <v>-0.1776090529801791</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.4031815470870335</v>
+        <v>-0.3996858940706288</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.3796930409008046</v>
+        <v>-0.397304554556985</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.2081832830215855</v>
+        <v>-0.2095022376423799</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.37191839064293</v>
+        <v>-0.3819933647672681</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.361894010035289</v>
+        <v>-0.3561988260185588</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.2869601734414673</v>
+        <v>0.2832043727464174</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.1095244957473801</v>
+        <v>0.1367606985199784</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.2097333698166226</v>
+        <v>0.1454101425231136</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.2966483171613958</v>
+        <v>0.3029175476831833</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>-0.007807029743581683</v>
+        <v>0.01118319247168531</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>-0.06710121685982476</v>
+        <v>-0.06112866793767745</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.1752468661787549</v>
+        <v>0.1939143346332893</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>-0.04377451106762691</v>
+        <v>-0.03609603131338561</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>-0.06494627182225737</v>
+        <v>-0.08204032086933766</v>
       </c>
     </row>
     <row r="40">
@@ -1930,7 +1930,7 @@
         <v>-6.72781483272159</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>-4.528846348240403</v>
+        <v>-4.528846348240401</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>10.48982133815396</v>
@@ -1948,7 +1948,7 @@
         <v>-1.200360961400176</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>0.744558755573127</v>
+        <v>0.7445587555731159</v>
       </c>
     </row>
     <row r="41">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-10.46199533202264</v>
+        <v>-10.18092412637689</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-13.99302752365271</v>
+        <v>-14.09271136756892</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-12.08166792792798</v>
+        <v>-11.74342098451739</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>3.121791322948571</v>
+        <v>3.233252042015666</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-4.35070944797101</v>
+        <v>-4.458693665314901</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-1.492826978321722</v>
+        <v>-1.519785615307133</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-0.4210840111765062</v>
+        <v>-0.1633149590412162</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-5.915907719960254</v>
+        <v>-6.202352936498922</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-3.562806392985482</v>
+        <v>-3.688695371681652</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>5.399473792311827</v>
+        <v>5.437774833671283</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>0.0161484333623592</v>
+        <v>0.3572322366692711</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>1.930662344053404</v>
+        <v>1.90058229643128</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>17.69672348566192</v>
+        <v>17.37779825210131</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>10.39891955528299</v>
+        <v>10.06626470363189</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>9.946949499947076</v>
+        <v>9.419115844733234</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>10.53392847018663</v>
+        <v>10.66948614090629</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>3.910856905519732</v>
+        <v>4.146184082164575</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>5.484132135844603</v>
+        <v>5.654780644094967</v>
       </c>
     </row>
     <row r="43">
@@ -2035,7 +2035,7 @@
         <v>-0.2647823837588308</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>-0.1782389619185575</v>
+        <v>-0.1782389619185574</v>
       </c>
       <c r="F43" s="6" t="n">
         <v>0.411043418175498</v>
@@ -2053,7 +2053,7 @@
         <v>-0.04711531108103042</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>0.02922464034986036</v>
+        <v>0.02922464034985993</v>
       </c>
     </row>
     <row r="44">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.3488219148791668</v>
+        <v>-0.3505361329635843</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.4741605884379541</v>
+        <v>-0.4697416470939194</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.3926827436452532</v>
+        <v>-0.3909193050148482</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.1033825687064096</v>
+        <v>0.1066603377028706</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.1539777574466547</v>
+        <v>-0.152726750256344</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.05151461474865281</v>
+        <v>-0.0504648732491125</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.01553352362175436</v>
+        <v>-0.004591078000310262</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.2170963218655493</v>
+        <v>-0.2205419494322501</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.126377477744114</v>
+        <v>-0.1283392025958778</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.2558250499684808</v>
+        <v>0.2594696890243366</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.001121629972622742</v>
+        <v>0.02161384045246359</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.09602556363618578</v>
+        <v>0.08835448341800883</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.800248245951009</v>
+        <v>0.7982636531487591</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.479289427049004</v>
+        <v>0.4719289070948218</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.4711776757369083</v>
+        <v>0.4237588784711211</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.4738331205045755</v>
+        <v>0.4742922992085929</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.1750210298697243</v>
+        <v>0.1877692855409364</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.2446316934690473</v>
+        <v>0.2537337047107586</v>
       </c>
     </row>
     <row r="46">
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-2.831946040946199</v>
+        <v>-3.034682885097053</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-7.140434419631314</v>
+        <v>-7.038326960940811</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-5.148049117272635</v>
+        <v>-5.359922135562041</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>1.509236370889492</v>
+        <v>1.360911629065493</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-7.701023369986474</v>
+        <v>-7.671780967902405</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-4.90876143390443</v>
+        <v>-4.769975433888773</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-0.1598832899267911</v>
+        <v>-0.1163388550711425</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-6.847476667917432</v>
+        <v>-6.793572246585187</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-4.562751792582592</v>
+        <v>-4.444451667104561</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>0.6894428656571799</v>
+        <v>0.6244610024627166</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>-3.598277028055819</v>
+        <v>-3.653474957120601</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>-1.739322731832091</v>
+        <v>-1.727421561583641</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>5.565569813382145</v>
+        <v>5.510956975445718</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>-3.761501553345524</v>
+        <v>-3.663508153247477</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>-1.139437668189806</v>
+        <v>-1.200132632803695</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>2.484160614603218</v>
+        <v>2.608679947504593</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>-4.202818620566648</v>
+        <v>-4.146620373756417</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>-1.962062353594384</v>
+        <v>-1.899852645521665</v>
       </c>
     </row>
     <row r="49">
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.1609725986075091</v>
+        <v>-0.1684105796467487</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.397167038586508</v>
+        <v>-0.3960700247613023</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.2901053980528567</v>
+        <v>-0.300276271607919</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>0.06407330205395462</v>
+        <v>0.05880680982312001</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.3308704950339331</v>
+        <v>-0.3272407757123807</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.2050757419963943</v>
+        <v>-0.2032447003843185</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.008003350722544805</v>
+        <v>-0.004280035644069449</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.3374409819038545</v>
+        <v>-0.3342203916353439</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.2233389234003618</v>
+        <v>-0.2195899646088192</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.04257342670169618</v>
+        <v>0.03880913368784059</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>-0.2238576176251802</v>
+        <v>-0.2308788964261582</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>-0.1090718438960474</v>
+        <v>-0.1073031058784242</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.2602978568495667</v>
+        <v>0.2621136763751922</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>-0.1753258782848202</v>
+        <v>-0.1737693364454028</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>-0.05433245336896649</v>
+        <v>-0.05654663007256064</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.1306454954992261</v>
+        <v>0.1391755362658028</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>-0.2207682140875929</v>
+        <v>-0.2192451599683198</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>-0.1038049302317448</v>
+        <v>-0.09953858213520923</v>
       </c>
     </row>
     <row r="52">
